--- a/Manuel Test Case .xlsx
+++ b/Manuel Test Case .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>User Story ID</t>
   </si>
@@ -106,15 +106,6 @@
     <t>Kullanici Reset yazisini gordu</t>
   </si>
   <si>
-    <t>In the Onboarding - Anket page, the Atla Buton element must exist.</t>
-  </si>
-  <si>
-    <t>In the “sayfa _adı” page, the “Button ismi”  element must exist.</t>
-  </si>
-  <si>
-    <t>In the “sayfa adı” page, “element adı” element is clicked</t>
-  </si>
-  <si>
     <t>Kullanici start butonunun cilick yapar</t>
   </si>
   <si>
@@ -145,81 +136,6 @@
     <t>Kullanici sayacin 25.00 oldugunu gormeli</t>
   </si>
   <si>
-    <t>Elbette, aşağıda timer uygulamanız için bazı test senaryolarını bulabilirsiniz:</t>
-  </si>
-  <si>
-    <t>Normal Çalışma:</t>
-  </si>
-  <si>
-    <t>Start butonuna tıklanır.</t>
-  </si>
-  <si>
-    <t>Timer 25:00'dan geriye doğru saymaya başlar.</t>
-  </si>
-  <si>
-    <t>Stop butonuna tıklanarak timer durdurulabilir.</t>
-  </si>
-  <si>
-    <t>Reset butonuna tıklanarak timer 25:00'a geri döndürülebilir.</t>
-  </si>
-  <si>
-    <t>Süre Bitiminde Durma:</t>
-  </si>
-  <si>
-    <t>Timer 0:00'a ulaştığında otomatik olarak durmalıdır.</t>
-  </si>
-  <si>
-    <t>Stop butonu timer'ı elle durdurmamalıdır.</t>
-  </si>
-  <si>
-    <t>Duraklatıldıktan Sonra Devam Etme:</t>
-  </si>
-  <si>
-    <t>Timer belirli bir süre çalıştıktan sonra Stop butonuna tıklanarak durdurulur.</t>
-  </si>
-  <si>
-    <t>Start butonuna tekrar tıklanarak timer devam etmelidir.</t>
-  </si>
-  <si>
-    <t>Resetleme İşlemi:</t>
-  </si>
-  <si>
-    <t>Start butonuna tıklanır ve timer başlar.</t>
-  </si>
-  <si>
-    <t>Stop butonuna tıklanır ve timer durdurulur.</t>
-  </si>
-  <si>
-    <t>Reset butonuna tıklanarak timer 25:00'a geri döndürülür.</t>
-  </si>
-  <si>
-    <t>Start butonuna tıklanarak timer tekrar başlamalıdır.</t>
-  </si>
-  <si>
-    <t>Birden Fazla Duraklatma ve Devam Etme:</t>
-  </si>
-  <si>
-    <t>Belirli bir süre sonra Stop butonuna tıklanarak timer durdurulur.</t>
-  </si>
-  <si>
-    <t>Start butonuna tıklanarak timer devam etmelidir.</t>
-  </si>
-  <si>
-    <t>Bu duraklatma ve devam etme işlemi birkaç kez tekrar edilmelidir.</t>
-  </si>
-  <si>
-    <t>Birden Fazla Reset İşlemi:</t>
-  </si>
-  <si>
-    <t>Timer herhangi bir anda durdurularak (Stop) Reset butonuna tıklanarak 25:00'a geri döndürülebilir.</t>
-  </si>
-  <si>
-    <t>Bu işlem birkaç kez tekrar edilmelidir.</t>
-  </si>
-  <si>
-    <t>Bu test senaryoları, timer uygulamanızın temel işlevselliğini kapsamalıdır. Ayrıca, kullanıcı arayüzünün uygun şekilde tepki verip vermediğini kontrol etmek ve hata durumlarını test etmek de önemlidir.</t>
-  </si>
-  <si>
     <t>Kullanici 5 saniye bekler</t>
   </si>
   <si>
@@ -236,6 +152,21 @@
   </si>
   <si>
     <t>Kullanici sayacin 25 oldugunu gordu</t>
+  </si>
+  <si>
+    <t>Kullanici sayacin durdugunu gormeli</t>
+  </si>
+  <si>
+    <t>Kullanici sayacin devam ettigini gormeli</t>
+  </si>
+  <si>
+    <t>Kullanici timeri n 25 00 olmadigi gordu</t>
+  </si>
+  <si>
+    <t>Kullanici sayacin durdugunu gordu</t>
+  </si>
+  <si>
+    <t>Kullanici sayacin devam ettigini gordu</t>
   </si>
 </sst>
 </file>
@@ -654,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:Y1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,7 +597,7 @@
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="53.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -737,9 +668,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -765,12 +694,14 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -803,11 +734,11 @@
       <c r="H4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -838,7 +769,9 @@
       <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -871,11 +804,11 @@
       <c r="H6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -897,20 +830,20 @@
       <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -932,20 +865,20 @@
       <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -967,20 +900,20 @@
       <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1005,11 +938,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1042,7 +973,9 @@
       <c r="H11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1070,16 +1003,16 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1101,20 +1034,20 @@
       <c r="C13" s="9"/>
       <c r="D13" s="5"/>
       <c r="E13" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1136,16 +1069,14 @@
       <c r="C14" s="9"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1167,20 +1098,20 @@
       <c r="C15" s="9"/>
       <c r="D15" s="5"/>
       <c r="E15" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1202,16 +1133,18 @@
       <c r="C16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="11" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1238,11 +1171,9 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1275,11 +1206,11 @@
       <c r="H18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1305,16 +1236,16 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1336,20 +1267,20 @@
       <c r="C20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1371,20 +1302,20 @@
       <c r="C21" s="9"/>
       <c r="D21" s="5"/>
       <c r="E21" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1409,11 +1340,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1446,11 +1375,11 @@
       <c r="H23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1476,16 +1405,16 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1507,16 +1436,18 @@
       <c r="C25" s="9"/>
       <c r="D25" s="19"/>
       <c r="E25" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1539,16 +1470,18 @@
       <c r="C26" s="9"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1574,11 +1507,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1611,11 +1542,11 @@
       <c r="H28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1641,16 +1572,16 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1672,16 +1603,20 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1703,16 +1638,20 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1734,12 +1673,18 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1762,16 +1707,20 @@
       <c r="C33" s="4"/>
       <c r="D33" s="23"/>
       <c r="E33" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1795,11 +1744,9 @@
       <c r="E34" s="18"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1832,11 +1779,11 @@
       <c r="H35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -1862,16 +1809,16 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1893,16 +1840,20 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -1924,12 +1875,18 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1953,12 +1910,18 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1982,12 +1945,18 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -5040,9 +5009,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -5069,9 +5036,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -5098,9 +5063,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
